--- a/Java_과제/MyCalculator_bs2/MyCalculator/#200617_JAVA_project.xlsx
+++ b/Java_과제/MyCalculator_bs2/MyCalculator/#200617_JAVA_project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\AI_Academy\Java_과제\MyCalculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\AI_Academy\Java_과제\MyCalculator_bs2\MyCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>현재 버전</t>
   </si>
@@ -44,6 +44,200 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>apk release</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.6.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>020.6.30</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>괄호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Back space </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>020.7.01</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ackspace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.2.1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>GitHub\AI_Academy\Java_</t>
     </r>
@@ -72,20 +266,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>MyCalculator</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>apk release</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.6.28</t>
+      <t>MyCalculator_bs2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -124,6 +310,19 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -155,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -164,6 +363,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -382,10 +583,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -397,16 +598,16 @@
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f ca="1">TODAY()</f>
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -425,16 +626,44 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
